--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1612315.875471317</v>
+        <v>1683705.891687356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558491</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6686409.093251048</v>
+        <v>7126492.696510122</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>300.1293278244321</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>397.188167166915</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>115.1055716303395</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>187.2256325115549</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>110.7559626918116</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>130.774426990978</v>
       </c>
       <c r="X7" t="n">
-        <v>210.2585397021225</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1136,19 +1138,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>114.6402946573877</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>156.3950745845505</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281.5071057207726</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407065</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,22 +1423,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>75.73201610191977</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>6.686662072010476</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,16 +1615,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>203.4739633973649</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458141</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>101.330737619658</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1825,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>205.4399102768</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>47.24726165657607</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>213.7918865838355</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2293,10 +2295,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>269.7389803299516</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>6.464056402156957</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>55.81450188835453</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>70.14557982003988</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>216.3411905107154</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3187,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3238,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>64.32066041389389</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>172.804035614548</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>151.0888055282569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>41.92223459459391</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.72749549355848</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>81.3215436178091</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,19 +4191,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>227.635750397087</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.734449149356</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>816.0473031888248</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>793.186977242529</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>773.9347604679333</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>347.9578206157909</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="M2" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N2" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O2" t="n">
         <v>1100.603903091853</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1651.269438076291</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4364,16 +4366,16 @@
         <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>1641.263477976562</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>1244.872128276909</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X2" t="n">
-        <v>1237.19253348506</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y2" t="n">
-        <v>831.8552634399508</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C4" t="n">
         <v>955.7067844524004</v>
@@ -4486,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.87263914955</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2177.87263914955</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>511.1098178163286</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4565,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1471.030487888973</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094558</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>1153.275937980036</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817.6748732344923</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>645.7023101134083</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>482.385537240179</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>482.385537240179</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1531.252408707715</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V7" t="n">
-        <v>1531.252408707715</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>1256.400004880228</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>1044.01764154475</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>817.6748732344923</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.637416540946</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.736686554246</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588626</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.742242796777</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1858.445376792072</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>287.7093087981016</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573485</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524009</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791716</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320252</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065856</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008178</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089722</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2066.936429649699</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2066.936429649699</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1786.751981150003</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1786.751981150003</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595809</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.845316285551</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2076.18020516758</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.18020516758</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.887584352581</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500438</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898386</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792871</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2381.073683267897</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3129.740230712748</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3129.740230712748</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2772.250815838997</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2772.250815838997</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.530817006745</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.530817006745</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.928168679499</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.928168679499</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1048.094704761305</v>
+        <v>605.867477820625</v>
       </c>
       <c r="C13" t="n">
-        <v>876.122141640221</v>
+        <v>605.867477820625</v>
       </c>
       <c r="D13" t="n">
-        <v>712.8053687669917</v>
+        <v>442.5507049473957</v>
       </c>
       <c r="E13" t="n">
-        <v>546.5971629198452</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="F13" t="n">
-        <v>374.7353886944056</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="G13" t="n">
-        <v>208.4784189886378</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679216</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2027.921517116229</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>2021.167313003087</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1739.455845611116</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W13" t="n">
-        <v>1464.603441783629</v>
+        <v>1264.940111397143</v>
       </c>
       <c r="X13" t="n">
-        <v>1464.603441783629</v>
+        <v>1022.376214842949</v>
       </c>
       <c r="Y13" t="n">
-        <v>1238.260673473371</v>
+        <v>796.0334465326906</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1985.617630774649</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1558.716900787949</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1135.424279972949</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>709.4473401208065</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9180841638723</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>117.2743796706997</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>832.7826876461987</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>832.7826876461987</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>1633.224300044002</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839608</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839608</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.18195388424</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480652</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2397.337629606901</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2397.337629606901</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1985.617630774649</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1985.617630774649</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945951</v>
+        <v>937.263987363325</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292398</v>
+        <v>937.263987363325</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.4765200752137</v>
+        <v>684.4570266215845</v>
       </c>
       <c r="C16" t="n">
-        <v>474.5039569541297</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="D16" t="n">
-        <v>474.5039569541297</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="E16" t="n">
-        <v>474.5039569541297</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2074.960130429055</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2074.960130429055</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>1794.77568192936</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>1513.064214537389</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W16" t="n">
-        <v>1305.549153651732</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X16" t="n">
-        <v>1062.985257097537</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y16" t="n">
-        <v>836.6424887872793</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5522,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.7150043171358</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>416.0527580951347</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>249.7957883893668</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5674,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358203</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302411</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100492</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976528</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656291</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578191</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818953</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818953</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338088</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1896.629292748355</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1616.44484424866</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1334.733376856688</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1059.880973029201</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>1059.880973029201</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1059.880973029201</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>964.4851292537592</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>964.4851292537592</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>853.0186603771511</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>681.0460972560671</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7293243828378</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1596.777729069091</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1596.777729069091</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1321.925325241604</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1079.361428687409</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>853.0186603771511</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3845.931202281455</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281455</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408226</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.40622356108</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.54444933564</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629872</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138026</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102461</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308298</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602719</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572969</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449005</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>5061.567707077432</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>4779.85623968546</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>4505.003835857973</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>4262.439939303778</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>4036.097170993521</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,16 +6305,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.7597400424195</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>444.7871769213355</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>373.9330558909921</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>373.9330558909921</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1550.684777446425</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.832373618938</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>1033.268477064743</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.9257087544852</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6549,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>606.7404520798269</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>434.7678889587429</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>434.7678889587429</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.665489483832</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.813085656345</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>1023.24918910215</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>796.9064207918925</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.167063056836</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>850.1944999357522</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1438.67580007916</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1438.67580007916</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1212.333031768902</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,16 +7013,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
         <v>821.6753975134684</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>612.3452565994986</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>440.3726934784146</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2108.166209895171</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1827.981761395475</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1546.270294003504</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1271.417890176017</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1028.853993621822</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>802.5112253115642</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7178,19 +7180,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.573812288737</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C40" t="n">
-        <v>836.6012491676531</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D40" t="n">
-        <v>836.6012491676531</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1477.48047715319</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1234.916580598995</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.573812288737</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2041.283333911051</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2041.283333911051</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.990713096051</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1192.013773243908</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333087</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227574</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136877</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1142.793917289187</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1943.23552968699</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N41" t="n">
-        <v>2660.465710453522</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O41" t="n">
-        <v>2660.465710453522</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453522</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2908.814659757381</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2908.814659757381</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2908.814659757381</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>2866.468968247691</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2461.131698202581</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679216</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679216</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679216</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="M42" t="n">
-        <v>272.4865562816959</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>665.886235560953</v>
+        <v>3640.589801095121</v>
       </c>
       <c r="C43" t="n">
-        <v>665.886235560953</v>
+        <v>3468.617237974037</v>
       </c>
       <c r="D43" t="n">
-        <v>502.5694626877237</v>
+        <v>3305.300465100808</v>
       </c>
       <c r="E43" t="n">
-        <v>502.5694626877237</v>
+        <v>3139.092259253661</v>
       </c>
       <c r="F43" t="n">
-        <v>330.7076884622841</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>1721.571381636125</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1439.859914244154</v>
+        <v>4331.950941944931</v>
       </c>
       <c r="W43" t="n">
-        <v>1165.007510416666</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="X43" t="n">
-        <v>922.4436138624716</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="Y43" t="n">
-        <v>856.0522042730186</v>
+        <v>3830.755769807186</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2063.845001487199</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.944271500499</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1213.6516506855</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>787.6747108333572</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5505290227574</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227574</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679216</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945951</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.006987690201</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2466.006987690201</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3174.286266848129</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2908.814659757381</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2551.325244883631</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2469.182271532309</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2469.182271532309</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.845001487199</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>72.128793458704</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="J45" t="n">
-        <v>343.826282738295</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="K45" t="n">
-        <v>934.3112093066346</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="L45" t="n">
-        <v>934.3112093066346</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="M45" t="n">
-        <v>934.3112093066346</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="N45" t="n">
-        <v>1327.204994129819</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="O45" t="n">
-        <v>1327.204994129819</v>
+        <v>4287.649526911006</v>
       </c>
       <c r="P45" t="n">
-        <v>1327.204994129819</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.3382943006533</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="C46" t="n">
-        <v>646.3657311795693</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D46" t="n">
-        <v>646.3657311795693</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541297</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>1831.620782654955</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1551.43633415526</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V46" t="n">
-        <v>1269.724866763288</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W46" t="n">
-        <v>1269.724866763288</v>
+        <v>1308.330394921156</v>
       </c>
       <c r="X46" t="n">
-        <v>1027.160970209094</v>
+        <v>1065.766498366961</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.3382943006533</v>
+        <v>839.4237300567033</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>454.9370402678085</v>
+        <v>268.0669951958121</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8067,16 +8069,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>110.4928214404737</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>91.07600343998001</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>84.50867025038121</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8553,7 +8555,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>780.2975317699713</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>287.4399897374262</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
-        <v>767.0851935457781</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321241</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>82.54342329761431</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>390.0005948959937</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222299</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234436</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>233.0753299089938</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>56.96224792398087</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>475.2939470053066</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9401,28 +9403,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
-        <v>253.9768642681691</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335786</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10826,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10917,10 +10919,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11063,19 +11065,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093337</v>
+        <v>681.7356392914811</v>
       </c>
       <c r="N41" t="n">
-        <v>761.7545529016503</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766267</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>233.0002206990995</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234436</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321241</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093337</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N44" t="n">
-        <v>845.806504044348</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>96.55018772730399</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>418.2054371258495</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.1427749278421</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.62628970500738</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>270.6959419426883</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>217.3989765951289</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>68.81241886352718</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>66.66396951241211</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>95.11104415035108</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>27.11406771252345</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>7.643623684747126</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>270.9185476125418</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>132.4498071365905</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>91.53802532445711</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>62.55316220733593</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>207.7832193753182</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.10191868181104</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>13.45731826041808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>365.6805642493363</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.3518451335969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>311.1058925848475</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>44.46812939212515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.34489147779942</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459205.2238198937</v>
+        <v>609823.3752083702</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459205.2238198937</v>
+        <v>609823.3752083699</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619294.8567293836</v>
+        <v>619294.8567293835</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619294.8567293836</v>
+        <v>619294.8567293835</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619294.8567293835</v>
+        <v>619294.8567293836</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459205.2238198939</v>
+        <v>609823.3752083703</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459205.2238198939</v>
+        <v>609823.3752083702</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
+        <v>436832.0010083722</v>
+      </c>
+      <c r="D2" t="n">
         <v>436832.0010083723</v>
       </c>
-      <c r="D2" t="n">
-        <v>436832.0010083725</v>
-      </c>
       <c r="E2" t="n">
-        <v>312571.8840020593</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="G2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="H2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="I2" t="n">
         <v>421522.8023530853</v>
-      </c>
-      <c r="H2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="I2" t="n">
-        <v>421522.8023530854</v>
       </c>
       <c r="J2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="K2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="L2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="M2" t="n">
         <v>421522.8023530853</v>
       </c>
-      <c r="L2" t="n">
-        <v>421522.8023530854</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421522.8023530854</v>
-      </c>
       <c r="N2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="O2" t="n">
-        <v>312571.8840020593</v>
+        <v>415076.8720882409</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020594</v>
+        <v>415076.8720882405</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346223</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537389</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>173998.4022791779</v>
+      </c>
+      <c r="C4" t="n">
         <v>173998.4022791778</v>
-      </c>
-      <c r="C4" t="n">
-        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>43020.44595046932</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="F4" t="n">
-        <v>43020.44595046932</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
+        <v>58064.51385187964</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58064.51385187964</v>
+      </c>
+      <c r="I4" t="n">
+        <v>58064.51385187964</v>
+      </c>
+      <c r="J4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="K4" t="n">
         <v>58064.51385187959</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58064.51385187961</v>
-      </c>
-      <c r="I4" t="n">
-        <v>58064.51385187959</v>
-      </c>
-      <c r="J4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="K4" t="n">
-        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
         <v>58064.51385187964</v>
@@ -26454,10 +26456,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="P4" t="n">
-        <v>43020.44595046938</v>
+        <v>57174.45239980772</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8982.614277029206</v>
+        <v>8982.614277029061</v>
       </c>
       <c r="C6" t="n">
+        <v>195387.3476917663</v>
+      </c>
+      <c r="D6" t="n">
         <v>195387.3476917664</v>
       </c>
-      <c r="D6" t="n">
-        <v>195387.3476917665</v>
-      </c>
       <c r="E6" t="n">
-        <v>145062.0525205657</v>
+        <v>74411.65396383934</v>
       </c>
       <c r="F6" t="n">
-        <v>220393.0036740281</v>
+        <v>281843.9415804003</v>
       </c>
       <c r="G6" t="n">
-        <v>156817.8265012355</v>
+        <v>278082.6042292946</v>
       </c>
       <c r="H6" t="n">
         <v>285708.226312776</v>
       </c>
       <c r="I6" t="n">
+        <v>285708.2263127759</v>
+      </c>
+      <c r="J6" t="n">
+        <v>140174.5563779596</v>
+      </c>
+      <c r="K6" t="n">
+        <v>285708.2263127763</v>
+      </c>
+      <c r="L6" t="n">
         <v>285708.2263127762</v>
       </c>
-      <c r="J6" t="n">
-        <v>140174.5563779595</v>
-      </c>
-      <c r="K6" t="n">
-        <v>285708.226312776</v>
-      </c>
-      <c r="L6" t="n">
-        <v>285708.226312776</v>
-      </c>
       <c r="M6" t="n">
-        <v>222834.2893474022</v>
+        <v>112577.7351071364</v>
       </c>
       <c r="N6" t="n">
-        <v>285708.226312776</v>
+        <v>285708.2263127762</v>
       </c>
       <c r="O6" t="n">
-        <v>220393.003674028</v>
+        <v>281843.9415804007</v>
       </c>
       <c r="P6" t="n">
-        <v>220393.003674028</v>
+        <v>281843.9415804003</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>120.7436121680616</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.095730177743576</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>163.7887810877119</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.85370811560045</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27670,19 +27672,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>296.8468361521186</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>141.3294527982341</v>
       </c>
       <c r="X7" t="n">
-        <v>29.87971788653041</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>304.419399949462</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27907,10 +27909,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12.03862242150598</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28071,7 +28073,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28327,13 +28329,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.996581271752635e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.996581271752635e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.996581271752635e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-9.054494063843517e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.996581271752635e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.996581271752635e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28746,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.500006925407078e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.51594729340821e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29232,7 +29234,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.500006925407078e-12</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>432.5378064344752</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>73.0615585410419</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>67.9041137177578</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>742.9065724139473</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>251.3153151328282</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
-        <v>743.9884130334501</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099019</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.12346381202778</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099019</v>
+        <v>352.6096355399696</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099019</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>209.9034401867715</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>19.53098502454905</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.1971664929786</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937714</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36121,28 +36123,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212506</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36530,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>359.0183117977369</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
         <v>293.5345574968697</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37546,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099019</v>
+        <v>644.3043763920493</v>
       </c>
       <c r="N41" t="n">
-        <v>724.4749300672042</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099019</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099019</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.42551312270595</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1683705.891687356</v>
+        <v>1682987.901572498</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>230.778805529738</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>397.188167166915</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>26.64950060226629</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.2256325115549</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>361.8213802385751</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>90.8024241098034</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>130.774426990978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1141,13 +1141,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>155.8893233795038</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>284.4554049657235</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610191977</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1578,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.3118661077256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>105.0134374522399</v>
       </c>
       <c r="F16" t="n">
-        <v>101.330737619658</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165657607</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725212</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>155.491803831262</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.81450188835453</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>79.25260064459853</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>152.439529261542</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869526</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>107.6990468646921</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>280.4903920320435</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>124.2290557831218</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>227.635750397087</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O2" t="n">
         <v>1100.603903091853</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X2" t="n">
-        <v>879.7031186113101</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1761.899316134962</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7093087981016</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>287.7093087981016</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M3" t="n">
-        <v>287.7093087981016</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N3" t="n">
-        <v>287.7093087981016</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4488,25 +4488,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4518,22 +4518,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X4" t="n">
-        <v>1144.823584969123</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.7067844524004</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>737.4839554633641</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>565.51139234228</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>402.1946194690507</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>235.9864136219043</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="8">
@@ -4789,10 +4789,10 @@
         <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L8" t="n">
-        <v>1123.5801824935</v>
-      </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
         <v>432.8421946614841</v>
@@ -5050,16 +5050,16 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2107.813759290661</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>3084.064817777362</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3929.209467928174</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4637.488747086102</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
         <v>4886.290909067602</v>
@@ -5080,13 +5080,13 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>690.5618714473296</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L12" t="n">
-        <v>1019.283297448028</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>605.867477820625</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>605.867477820625</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>442.5507049473957</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>276.3424991002493</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>276.3424991002493</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>276.3424991002493</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
         <v>199.8455131387141</v>
@@ -5226,25 +5226,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="V13" t="n">
-        <v>1539.792515224631</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>1264.940111397143</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.376214842949</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.0334465326906</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405491</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5308,19 +5308,19 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
         <v>2958.324093828008</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>107.5235878409019</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>107.5235878409019</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L15" t="n">
-        <v>107.5235878409019</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M15" t="n">
-        <v>937.263987363325</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N15" t="n">
-        <v>937.263987363325</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O15" t="n">
-        <v>1826.745265374797</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P15" t="n">
-        <v>1826.745265374797</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.4570266215845</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C16" t="n">
-        <v>512.4844635005005</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="D16" t="n">
-        <v>512.4844635005005</v>
+        <v>378.0128983491164</v>
       </c>
       <c r="E16" t="n">
-        <v>512.4844635005005</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>410.1301830766035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.112011205191</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>1709.927562705496</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>1428.216095313524</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.363691486037</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X16" t="n">
-        <v>910.7997949318425</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.4570266215845</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5527,16 +5527,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>971.931772215671</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416583</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951347</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7957883893668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5797,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
         <v>274.1644876312681</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>875.4305977324519</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2155.623995541889</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1912.284647767789</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1632.100199268094</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1350.388731876122</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1075.536328048635</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>832.9724314944405</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>606.6296631841825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6466,19 +6466,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6490,10 +6490,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6788,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
         <v>1194.79262694784</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6943,16 +6943,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7016,25 +7016,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>875.4793615910734</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2128.736418332551</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1848.551969832855</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1566.840502440884</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1291.988098613397</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1291.988098613397</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1065.645330303139</v>
       </c>
     </row>
     <row r="38">
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7265,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446665</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714372</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714372</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,10 +7420,10 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
         <v>3721.926150405491</v>
@@ -7490,22 +7490,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P42" t="n">
         <v>1444.619098596721</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3640.589801095121</v>
+        <v>857.0978680697756</v>
       </c>
       <c r="C43" t="n">
-        <v>3468.617237974037</v>
+        <v>685.1253049486916</v>
       </c>
       <c r="D43" t="n">
-        <v>3305.300465100808</v>
+        <v>685.1253049486916</v>
       </c>
       <c r="E43" t="n">
-        <v>3139.092259253661</v>
+        <v>518.9170991015451</v>
       </c>
       <c r="F43" t="n">
-        <v>2967.230485028222</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G43" t="n">
-        <v>2967.230485028222</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V43" t="n">
-        <v>4331.950941944931</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W43" t="n">
-        <v>4057.098538117445</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X43" t="n">
-        <v>4057.098538117445</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="Y43" t="n">
-        <v>3830.755769807186</v>
+        <v>1047.263836781841</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7657,13 +7657,13 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="P44" t="n">
         <v>4430.205429563419</v>
@@ -7681,19 +7681,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3202.606256330908</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3202.606256330908</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3398.168248899535</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>3398.168248899535</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>3398.168248899535</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>3398.168248899535</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>4287.649526911006</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1705.75593992896</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.4237300567033</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>839.4237300567033</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D46" t="n">
-        <v>676.106957183474</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E46" t="n">
-        <v>509.8987513363276</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>1819.976963724326</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>1538.265496332355</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.330394921156</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.766498366961</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>839.4237300567033</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,10 +7990,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876113</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
@@ -8060,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0669951958121</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>97.94106200967602</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,7 +8303,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
@@ -8312,13 +8312,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>378.9827212526459</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8537,7 +8537,7 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.4399897374262</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,13 +8768,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,10 +8938,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>772.009546650278</v>
       </c>
       <c r="O14" t="n">
-        <v>390.0005948959937</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9251,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9482,28 +9482,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9719,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,10 +9883,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10114,13 +10114,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>58.21512474482097</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10591,19 +10591,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10664,28 +10664,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>650.2662691156821</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>681.7356392914811</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11138,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766267</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11305,16 +11305,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>814.1663547822778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>382.8829480395223</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11396,7 +11396,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500738</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>59.53268633643508</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352718</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415035108</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>32.77250519368297</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365905</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>89.18109636145796</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>88.46642503481698</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359623262</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.44410961849306</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>73.42412869296948</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>40.36534422558843</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939212515</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609823.3752083702</v>
+        <v>609823.37520837</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609823.3752083699</v>
+        <v>609823.3752083702</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619294.8567293835</v>
+        <v>619294.8567293836</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619294.8567293835</v>
+        <v>619294.8567293836</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609823.3752083703</v>
+        <v>609823.37520837</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609823.3752083702</v>
+        <v>609823.37520837</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083722</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="D2" t="n">
-        <v>436832.0010083723</v>
+        <v>436832.0010083724</v>
       </c>
       <c r="E2" t="n">
-        <v>415076.8720882405</v>
+        <v>415076.8720882406</v>
       </c>
       <c r="F2" t="n">
         <v>415076.8720882405</v>
@@ -26331,10 +26331,10 @@
         <v>421522.8023530854</v>
       </c>
       <c r="H2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="I2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="J2" t="n">
         <v>421522.8023530854</v>
@@ -26343,19 +26343,19 @@
         <v>421522.8023530855</v>
       </c>
       <c r="L2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="M2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="N2" t="n">
         <v>421522.8023530855</v>
       </c>
       <c r="O2" t="n">
-        <v>415076.8720882409</v>
+        <v>415076.8720882404</v>
       </c>
       <c r="P2" t="n">
-        <v>415076.8720882405</v>
+        <v>415076.8720882406</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
         <v>57174.45239980773</v>
@@ -26441,10 +26441,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
         <v>58064.51385187964</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8982.614277029061</v>
+        <v>8982.614277029148</v>
       </c>
       <c r="C6" t="n">
-        <v>195387.3476917663</v>
+        <v>195387.3476917664</v>
       </c>
       <c r="D6" t="n">
         <v>195387.3476917664</v>
       </c>
       <c r="E6" t="n">
-        <v>74411.65396383934</v>
+        <v>74339.136867439</v>
       </c>
       <c r="F6" t="n">
-        <v>281843.9415804003</v>
+        <v>281771.4244839999</v>
       </c>
       <c r="G6" t="n">
-        <v>278082.6042292946</v>
+        <v>278031.5735671103</v>
       </c>
       <c r="H6" t="n">
-        <v>285708.226312776</v>
+        <v>285657.1956505919</v>
       </c>
       <c r="I6" t="n">
-        <v>285708.2263127759</v>
+        <v>285657.1956505919</v>
       </c>
       <c r="J6" t="n">
-        <v>140174.5563779596</v>
+        <v>140123.5257157752</v>
       </c>
       <c r="K6" t="n">
-        <v>285708.2263127763</v>
+        <v>285657.1956505919</v>
       </c>
       <c r="L6" t="n">
-        <v>285708.2263127762</v>
+        <v>285657.1956505918</v>
       </c>
       <c r="M6" t="n">
-        <v>112577.7351071364</v>
+        <v>112526.7044449522</v>
       </c>
       <c r="N6" t="n">
-        <v>285708.2263127762</v>
+        <v>285657.1956505919</v>
       </c>
       <c r="O6" t="n">
-        <v>281843.9415804007</v>
+        <v>281771.4244839998</v>
       </c>
       <c r="P6" t="n">
-        <v>281843.9415804003</v>
+        <v>281771.4244839999</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>24.99255477981384</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.095730177743576</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.2448521157851</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.85370811560045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>53.82850041003962</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>79.34073237338178</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>141.3294527982341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.1659342747064</v>
+        <v>245.3945739651547</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>144.2794790315872</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>75.42597529544646</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
@@ -35032,13 +35032,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>533.7539620806207</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35257,7 +35257,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3153151328282</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,10 +35658,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>734.729923815832</v>
       </c>
       <c r="O14" t="n">
-        <v>352.6096355399696</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,10 +36603,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37311,19 +37311,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37384,28 +37384,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>644.3043763920493</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38025,16 +38025,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>776.7350918828461</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>345.307586229291</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
